--- a/data/trans_orig/P25C_R2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25C_R2_2023-Provincia-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3466</v>
+        <v>3999</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01351622817342009</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06882661839375798</v>
+        <v>0.0793972747060467</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3480</v>
+        <v>3674</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01083954963484984</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05542098794142861</v>
+        <v>0.05849994807141033</v>
       </c>
     </row>
     <row r="5">
@@ -804,7 +804,7 @@
         <v>49680</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>46895</v>
+        <v>46362</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>50361</v>
@@ -813,7 +813,7 @@
         <v>0.9864837718265799</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9311733816062421</v>
+        <v>0.9206027252939534</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>62116</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>59317</v>
+        <v>59123</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>62797</v>
@@ -847,7 +847,7 @@
         <v>0.9891604503651501</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9445790120585715</v>
+        <v>0.9415000519285877</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -945,16 +945,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5950</v>
+        <v>5048</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.00845878836988067</v>
+        <v>0.008458788369880668</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05017003046425624</v>
+        <v>0.04256295511925218</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4603</v>
+        <v>4453</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01907536474555121</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06896860647900864</v>
+        <v>0.0667141556361628</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -984,19 +984,19 @@
         <v>2276</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6630</v>
+        <v>6181</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01228178100459683</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003238940310199661</v>
+        <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0357691220097745</v>
+        <v>0.03334604538835502</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +1013,7 @@
         <v>117602</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>112655</v>
+        <v>113557</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>118605</v>
@@ -1022,7 +1022,7 @@
         <v>0.9915412116301193</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9498299695357423</v>
+        <v>0.9574370448807468</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1034,16 +1034,16 @@
         <v>65470</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>62140</v>
+        <v>62290</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>66743</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9809246352544487</v>
+        <v>0.980924635254449</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.931031393520991</v>
+        <v>0.933285844363837</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1055,19 +1055,19 @@
         <v>183072</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>178718</v>
+        <v>179167</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>184748</v>
+        <v>185348</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9877182189954031</v>
+        <v>0.987718218995403</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9642308779902239</v>
+        <v>0.9666539546116446</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9967610596898002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5184</v>
+        <v>4722</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01367979130435235</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07659399729526822</v>
+        <v>0.0697585250625167</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1180,19 +1180,19 @@
         <v>3598</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1247</v>
+        <v>1326</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6869</v>
+        <v>7283</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07249414496400616</v>
+        <v>0.07249414496400619</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02513273499825874</v>
+        <v>0.02670914502674137</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1383877469827407</v>
+        <v>0.1467359716776078</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1201,19 +1201,19 @@
         <v>4524</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1808</v>
+        <v>1793</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8689</v>
+        <v>9359</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03856231815560839</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01541103780045514</v>
+        <v>0.01528614797849664</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07406244313221146</v>
+        <v>0.07977094418920763</v>
       </c>
     </row>
     <row r="11">
@@ -1230,16 +1230,16 @@
         <v>66762</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>62504</v>
+        <v>62966</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>67688</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9863202086956475</v>
+        <v>0.9863202086956477</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9234060027047315</v>
+        <v>0.930241474937485</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1251,19 +1251,19 @@
         <v>46038</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>42767</v>
+        <v>42353</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48389</v>
+        <v>48310</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9275058550359938</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8616122530172594</v>
+        <v>0.8532640283223921</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9748672650017415</v>
+        <v>0.9732908549732585</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>158</v>
@@ -1272,19 +1272,19 @@
         <v>112800</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>108635</v>
+        <v>107965</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>115516</v>
+        <v>115531</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9614376818443915</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9259375568677884</v>
+        <v>0.9202290558107923</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9845889621995449</v>
+        <v>0.9847138520215032</v>
       </c>
     </row>
     <row r="12">
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4286</v>
+        <v>3064</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.005464835963998113</v>
+        <v>0.005464835963998114</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03989671209174103</v>
+        <v>0.02851741348120385</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3330</v>
+        <v>3248</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01529113392710842</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05115366678881401</v>
+        <v>0.0498926986774955</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1418,19 +1418,19 @@
         <v>1582</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5127</v>
+        <v>4750</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009172323500712924</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002805160027950027</v>
+        <v>0.002787782729483287</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02971979815084663</v>
+        <v>0.02753189282379711</v>
       </c>
     </row>
     <row r="14">
@@ -1447,16 +1447,16 @@
         <v>106844</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>103145</v>
+        <v>104367</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>107431</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9945351640360018</v>
+        <v>0.994535164036002</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9601032879082589</v>
+        <v>0.9714825865187962</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>64099</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61764</v>
+        <v>61846</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>65094</v>
@@ -1477,7 +1477,7 @@
         <v>0.9847088660728915</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9488463332111854</v>
+        <v>0.950107301322504</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1489,19 +1489,19 @@
         <v>170943</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>167398</v>
+        <v>167775</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>172041</v>
+        <v>172044</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9908276764992872</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9702802018491552</v>
+        <v>0.9724681071762018</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9971948399720501</v>
+        <v>0.9972122172705168</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1762,19 @@
         <v>1863</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4589</v>
+        <v>4482</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04183123397843255</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01054512924489546</v>
+        <v>0.01051360084607235</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1030327077708151</v>
+        <v>0.1006422270139228</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         <v>1863</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4436</v>
+        <v>4432</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03324637074243896</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008436409995365117</v>
+        <v>0.008077043946026378</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07916479835085474</v>
+        <v>0.07908603914501661</v>
       </c>
     </row>
     <row r="20">
@@ -1825,19 +1825,19 @@
         <v>42673</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>39947</v>
+        <v>40054</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>44066</v>
+        <v>44068</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9581687660215674</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8969672922291831</v>
+        <v>0.8993577729860771</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9894548707551045</v>
+        <v>0.9894863991539276</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -1859,19 +1859,19 @@
         <v>54173</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>51600</v>
+        <v>51604</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>55563</v>
+        <v>55583</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.966753629257561</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9208352016491452</v>
+        <v>0.9209139608549834</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9915635900046349</v>
+        <v>0.9919229560539736</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>3776</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>990</v>
+        <v>845</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9272</v>
+        <v>8499</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02652708368369297</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006952175796555101</v>
+        <v>0.005937030654543436</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0651321443596435</v>
+        <v>0.05970230596141447</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -1984,19 +1984,19 @@
         <v>5874</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2672</v>
+        <v>2621</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10484</v>
+        <v>10945</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05469026338304624</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02487814271919308</v>
+        <v>0.02440145967650036</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09761078171469861</v>
+        <v>0.1018967592573026</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -2005,19 +2005,19 @@
         <v>9651</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5015</v>
+        <v>5161</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16473</v>
+        <v>16203</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03863814293693191</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02007766705502741</v>
+        <v>0.02066375235198547</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06595251461470424</v>
+        <v>0.06487227132144195</v>
       </c>
     </row>
     <row r="23">
@@ -2034,19 +2034,19 @@
         <v>138583</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>133087</v>
+        <v>133860</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>141369</v>
+        <v>141514</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9734729163163069</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9348678556403563</v>
+        <v>0.9402976940385854</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.993047824203445</v>
+        <v>0.9940629693454566</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>133</v>
@@ -2055,19 +2055,19 @@
         <v>101534</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>96924</v>
+        <v>96463</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>104736</v>
+        <v>104787</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9453097366169537</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9023892182853016</v>
+        <v>0.898103240742698</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9751218572808069</v>
+        <v>0.9755985403234998</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>272</v>
@@ -2076,19 +2076,19 @@
         <v>240116</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>233294</v>
+        <v>233564</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>244752</v>
+        <v>244606</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9613618570630682</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9340474853852955</v>
+        <v>0.9351277286785578</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9799223329449727</v>
+        <v>0.9793362476480144</v>
       </c>
     </row>
     <row r="24">
@@ -2180,19 +2180,19 @@
         <v>6093</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2893</v>
+        <v>2817</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11142</v>
+        <v>10921</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05366690396254613</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02547579114122212</v>
+        <v>0.02481244838917997</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09812983171830146</v>
+        <v>0.09618046904039276</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2201,19 +2201,19 @@
         <v>2790</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6635</v>
+        <v>6488</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.06305968296259852</v>
+        <v>0.06305968296259853</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01665143401261704</v>
+        <v>0.01670734955515551</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1499634139572126</v>
+        <v>0.146641510019162</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -2222,19 +2222,19 @@
         <v>8883</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4870</v>
+        <v>4745</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15602</v>
+        <v>14619</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05630055513941925</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03086720565160746</v>
+        <v>0.03007184451929475</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09888288517685898</v>
+        <v>0.09265301057515619</v>
       </c>
     </row>
     <row r="26">
@@ -2251,19 +2251,19 @@
         <v>107449</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>102400</v>
+        <v>102621</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>110649</v>
+        <v>110725</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.946333096037454</v>
+        <v>0.9463330960374539</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9018701682816995</v>
+        <v>0.9038195309596074</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.974524208858778</v>
+        <v>0.97518755161082</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>57</v>
@@ -2272,19 +2272,19 @@
         <v>41451</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>37606</v>
+        <v>37753</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>43504</v>
+        <v>43502</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9369403170374017</v>
+        <v>0.9369403170374015</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8500365860427878</v>
+        <v>0.8533584899808381</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.983348565987383</v>
+        <v>0.9832926504448445</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>189</v>
@@ -2293,19 +2293,19 @@
         <v>148900</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>142181</v>
+        <v>143164</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>152913</v>
+        <v>153038</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9436994448605805</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9011171148231409</v>
+        <v>0.9073469894248439</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9691327943483925</v>
+        <v>0.969928155480705</v>
       </c>
     </row>
     <row r="27">
@@ -2397,19 +2397,19 @@
         <v>14930</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9113</v>
+        <v>9585</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>22774</v>
+        <v>23059</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02261345044283584</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01380291081923009</v>
+        <v>0.01451726643805211</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03449457760058577</v>
+        <v>0.03492699244577681</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>22</v>
@@ -2418,19 +2418,19 @@
         <v>14531</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8709</v>
+        <v>9586</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21259</v>
+        <v>21315</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03971358767478163</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02380359462623365</v>
+        <v>0.0261977729379862</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05810273188758425</v>
+        <v>0.05825536449868826</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>42</v>
@@ -2439,19 +2439,19 @@
         <v>29461</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>21015</v>
+        <v>21098</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>39046</v>
+        <v>39090</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02871102051280562</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02048022006556542</v>
+        <v>0.02056103241253297</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03805263549532695</v>
+        <v>0.0380954741565423</v>
       </c>
     </row>
     <row r="29">
@@ -2468,19 +2468,19 @@
         <v>645289</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>637445</v>
+        <v>637160</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>651106</v>
+        <v>650634</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.977386549557164</v>
+        <v>0.9773865495571641</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9655054223994146</v>
+        <v>0.9650730075542231</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.98619708918077</v>
+        <v>0.9854827335619479</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>503</v>
@@ -2489,19 +2489,19 @@
         <v>351359</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>344631</v>
+        <v>344575</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>357181</v>
+        <v>356304</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9602864123252184</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9418972681124157</v>
+        <v>0.9417446355013115</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9761964053737662</v>
+        <v>0.9738022270620138</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1243</v>
@@ -2510,19 +2510,19 @@
         <v>996648</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>987063</v>
+        <v>987019</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1005094</v>
+        <v>1005011</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9712889794871943</v>
+        <v>0.9712889794871944</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.961947364504673</v>
+        <v>0.9619045258434575</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9795197799344348</v>
+        <v>0.9794389675874666</v>
       </c>
     </row>
     <row r="30">
